--- a/TestCase V1.xlsx
+++ b/TestCase V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="9555" windowHeight="4185" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="9555" windowHeight="4185" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="login&amp;logout" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="437">
   <si>
     <t>ID</t>
   </si>
@@ -556,9 +556,6 @@
 2-press TAB to move to next field</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">no error msg will appear </t>
   </si>
   <si>
@@ -958,9 +955,6 @@
 2-press TAB to move to next field</t>
   </si>
   <si>
-    <t>error msg " special char5are not allowed"</t>
-  </si>
-  <si>
     <t>add new account_005</t>
   </si>
   <si>
@@ -1323,13 +1317,133 @@
   </si>
   <si>
     <t>stop typing when reach the max-length</t>
+  </si>
+  <si>
+    <t>userID:mngrf 
+password:123bb456</t>
+  </si>
+  <si>
+    <t>userID:xyz
+password:123bb456</t>
+  </si>
+  <si>
+    <t>userID:mngrf 
+password:123b</t>
+  </si>
+  <si>
+    <t>customer name: michael</t>
+  </si>
+  <si>
+    <t>customer name: michael123</t>
+  </si>
+  <si>
+    <t>customer name:mi chael</t>
+  </si>
+  <si>
+    <t>mich@el</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> press space before writing the address </t>
+  </si>
+  <si>
+    <t>using special character like: &amp;&amp;</t>
+  </si>
+  <si>
+    <t>cair22o</t>
+  </si>
+  <si>
+    <t>press on space button before writing the city</t>
+  </si>
+  <si>
+    <t>&amp;%</t>
+  </si>
+  <si>
+    <t>OH nick name of ohio</t>
+  </si>
+  <si>
+    <t>asdfg</t>
+  </si>
+  <si>
+    <t>$%</t>
+  </si>
+  <si>
+    <t>ascedffffg</t>
+  </si>
+  <si>
+    <t>"££</t>
+  </si>
+  <si>
+    <t>mich@el22@gmail.com</t>
+  </si>
+  <si>
+    <t>mich@el22@</t>
+  </si>
+  <si>
+    <t>asdosa</t>
+  </si>
+  <si>
+    <t>"£</t>
+  </si>
+  <si>
+    <t>epress space before writing first character</t>
+  </si>
+  <si>
+    <t>ascf</t>
+  </si>
+  <si>
+    <t>"£$</t>
+  </si>
+  <si>
+    <t>press space before writing first character</t>
+  </si>
+  <si>
+    <t>asdcv</t>
+  </si>
+  <si>
+    <t>press space before first character</t>
+  </si>
+  <si>
+    <t>"£££</t>
+  </si>
+  <si>
+    <t>acvfd</t>
+  </si>
+  <si>
+    <t>error msg "character not allowed"</t>
+  </si>
+  <si>
+    <t>£$£$</t>
+  </si>
+  <si>
+    <t>press on space button before writing first character</t>
+  </si>
+  <si>
+    <t>press space between character</t>
+  </si>
+  <si>
+    <t>££$</t>
+  </si>
+  <si>
+    <t>qwert</t>
+  </si>
+  <si>
+    <t>£££</t>
+  </si>
+  <si>
+    <t>enter space bbutton before first characer</t>
+  </si>
+  <si>
+    <t>asxzc</t>
+  </si>
+  <si>
+    <t>enter space before first character</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1343,6 +1457,15 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1445,10 +1568,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1496,8 +1620,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1800,7 +1931,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1853,7 +1984,9 @@
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>398</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1875,7 +2008,9 @@
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>399</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1921,7 +2056,9 @@
       <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>398</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
@@ -1943,7 +2080,9 @@
       <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>400</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
@@ -1991,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2046,6 +2185,9 @@
       <c r="D2" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
@@ -2088,6 +2230,9 @@
       <c r="D4" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>53</v>
       </c>
@@ -2109,6 +2254,9 @@
       <c r="D5" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>56</v>
       </c>
@@ -2130,6 +2278,9 @@
       <c r="D6" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>403</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>92</v>
       </c>
@@ -2150,6 +2301,9 @@
       </c>
       <c r="D7" s="3" t="s">
         <v>63</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>404</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>64</v>
@@ -2247,6 +2401,9 @@
       <c r="D12" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="E12" s="20">
+        <v>65014</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>83</v>
       </c>
@@ -2343,6 +2500,9 @@
       <c r="D17" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="E17" s="3" t="s">
+        <v>405</v>
+      </c>
       <c r="F17" s="3" t="s">
         <v>101</v>
       </c>
@@ -2363,6 +2523,9 @@
       </c>
       <c r="D18" s="3" t="s">
         <v>103</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>65</v>
@@ -2439,6 +2602,9 @@
       <c r="D22" s="3" t="s">
         <v>119</v>
       </c>
+      <c r="E22" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>54</v>
       </c>
@@ -2460,6 +2626,9 @@
       <c r="D23" s="3" t="s">
         <v>122</v>
       </c>
+      <c r="E23" s="3" t="s">
+        <v>406</v>
+      </c>
       <c r="F23" s="3" t="s">
         <v>65</v>
       </c>
@@ -2480,6 +2649,9 @@
       </c>
       <c r="D24" s="3" t="s">
         <v>125</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>101</v>
@@ -2556,6 +2728,9 @@
       <c r="D30" s="3" t="s">
         <v>140</v>
       </c>
+      <c r="E30" s="3">
+        <v>123</v>
+      </c>
       <c r="F30" s="3" t="s">
         <v>146</v>
       </c>
@@ -2577,6 +2752,9 @@
       <c r="D31" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="E31" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="F31" s="3" t="s">
         <v>147</v>
       </c>
@@ -2598,6 +2776,9 @@
       <c r="D32" s="3" t="s">
         <v>142</v>
       </c>
+      <c r="E32" s="3" t="s">
+        <v>408</v>
+      </c>
       <c r="F32" s="3" t="s">
         <v>148</v>
       </c>
@@ -2639,6 +2820,9 @@
       </c>
       <c r="D34" s="3" t="s">
         <v>144</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>92</v>
@@ -2662,7 +2846,7 @@
     </row>
     <row r="36" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>157</v>
@@ -2673,14 +2857,14 @@
       <c r="D36" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>160</v>
+      <c r="E36" s="3">
+        <v>123456</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>10</v>
@@ -2688,20 +2872,20 @@
     </row>
     <row r="37" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>10</v>
@@ -2709,20 +2893,23 @@
     </row>
     <row r="38" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>10</v>
@@ -2730,14 +2917,17 @@
     </row>
     <row r="39" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>174</v>
+      <c r="E39" s="3" t="s">
+        <v>412</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>151</v>
@@ -2751,20 +2941,23 @@
     </row>
     <row r="40" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>57</v>
@@ -2772,20 +2965,23 @@
     </row>
     <row r="41" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3">
+        <v>12344444444</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>10</v>
@@ -2793,20 +2989,23 @@
     </row>
     <row r="42" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3">
+        <v>123</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>10</v>
@@ -2824,22 +3023,22 @@
     </row>
     <row r="44" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B44" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="F44" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>10</v>
@@ -2847,20 +3046,20 @@
     </row>
     <row r="45" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="G45" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>10</v>
@@ -2868,20 +3067,23 @@
     </row>
     <row r="46" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>200</v>
+      <c r="E46" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="F46" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>10</v>
@@ -2889,20 +3091,23 @@
     </row>
     <row r="47" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>10</v>
@@ -2910,20 +3115,23 @@
     </row>
     <row r="48" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>57</v>
@@ -2931,20 +3139,23 @@
     </row>
     <row r="49" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3">
+        <v>1.23456789E+23</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>10</v>
@@ -2952,17 +3163,20 @@
     </row>
     <row r="50" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>91</v>
@@ -2983,22 +3197,22 @@
     </row>
     <row r="52" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="F52" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>10</v>
@@ -3006,19 +3220,19 @@
     </row>
     <row r="53" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="G53" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>10</v>
@@ -3026,19 +3240,22 @@
     </row>
     <row r="54" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>231</v>
+      <c r="E54" s="19" t="s">
+        <v>415</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>10</v>
@@ -3046,19 +3263,22 @@
     </row>
     <row r="55" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="H55" s="10" t="s">
         <v>57</v>
@@ -3066,19 +3286,22 @@
     </row>
     <row r="56" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="G56" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>10</v>
@@ -3096,22 +3319,22 @@
     </row>
     <row r="58" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B58" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="H58" s="10" t="s">
         <v>57</v>
@@ -3119,20 +3342,20 @@
     </row>
     <row r="59" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>10</v>
@@ -3159,6 +3382,11 @@
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B28:B34"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1"/>
+    <hyperlink ref="E54" r:id="rId2"/>
+    <hyperlink ref="E56" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3168,7 +3396,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3212,18 +3440,20 @@
     </row>
     <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="D2" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <v>19860</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>92</v>
       </c>
@@ -3236,21 +3466,21 @@
     </row>
     <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>10</v>
@@ -3258,21 +3488,23 @@
     </row>
     <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>297</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="F4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>10</v>
@@ -3280,16 +3512,18 @@
     </row>
     <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>300</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>418</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>151</v>
       </c>
@@ -3302,18 +3536,20 @@
     </row>
     <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>303</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>419</v>
+      </c>
       <c r="F6" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>91</v>
@@ -3324,21 +3560,21 @@
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>10</v>
@@ -3356,8 +3592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3400,19 +3636,19 @@
     </row>
     <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>91</v>
@@ -3423,20 +3659,20 @@
     </row>
     <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>259</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>10</v>
@@ -3444,20 +3680,23 @@
     </row>
     <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>10</v>
@@ -3465,41 +3704,47 @@
     </row>
     <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>270</v>
+      <c r="E6" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>152</v>
@@ -3527,8 +3772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3571,16 +3816,16 @@
     </row>
     <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>92</v>
@@ -3594,20 +3839,20 @@
     </row>
     <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>152</v>
@@ -3615,17 +3860,20 @@
     </row>
     <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>91</v>
@@ -3636,17 +3884,20 @@
     </row>
     <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>284</v>
+      <c r="E5" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>285</v>
+        <v>427</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>91</v>
@@ -3657,17 +3908,20 @@
     </row>
     <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>424</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>91</v>
@@ -3688,19 +3942,19 @@
     </row>
     <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="D8" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>91</v>
@@ -3711,20 +3965,20 @@
     </row>
     <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>152</v>
@@ -3732,17 +3986,20 @@
     </row>
     <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>91</v>
@@ -3753,17 +4010,20 @@
     </row>
     <row r="11" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>91</v>
@@ -3774,17 +4034,20 @@
     </row>
     <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>91</v>
@@ -3795,17 +4058,20 @@
     </row>
     <row r="13" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>91</v>
@@ -3837,8 +4103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3877,23 +4143,23 @@
     </row>
     <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="D2" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>10</v>
@@ -3901,21 +4167,21 @@
     </row>
     <row r="3" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>10</v>
@@ -3923,21 +4189,23 @@
     </row>
     <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>345</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>411</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>10</v>
@@ -3945,16 +4213,18 @@
     </row>
     <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>348</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>428</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>147</v>
       </c>
@@ -3967,21 +4237,23 @@
     </row>
     <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>152</v>
@@ -3989,21 +4261,23 @@
     </row>
     <row r="7" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>355</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>430</v>
+      </c>
       <c r="F7" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>152</v>
@@ -4011,21 +4285,21 @@
     </row>
     <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>10</v>
@@ -4053,8 +4327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4090,23 +4364,23 @@
     </row>
     <row r="2" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>10</v>
@@ -4114,21 +4388,21 @@
     </row>
     <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>10</v>
@@ -4136,21 +4410,23 @@
     </row>
     <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>345</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>10</v>
@@ -4158,16 +4434,18 @@
     </row>
     <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>348</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>431</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>147</v>
       </c>
@@ -4180,21 +4458,23 @@
     </row>
     <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>152</v>
@@ -4202,21 +4482,23 @@
     </row>
     <row r="7" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>355</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>430</v>
+      </c>
       <c r="F7" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>152</v>
@@ -4224,21 +4506,21 @@
     </row>
     <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>10</v>
@@ -4257,7 +4539,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4295,16 +4577,16 @@
     </row>
     <row r="2" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="D2" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
@@ -4319,21 +4601,21 @@
     </row>
     <row r="3" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>10</v>
@@ -4341,21 +4623,23 @@
     </row>
     <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>345</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>10</v>
@@ -4363,21 +4647,23 @@
     </row>
     <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>10</v>
@@ -4385,21 +4671,23 @@
     </row>
     <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>383</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="F6" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>57</v>
@@ -4407,21 +4695,21 @@
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>10</v>
@@ -4439,8 +4727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4476,16 +4764,16 @@
     </row>
     <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
@@ -4500,90 +4788,96 @@
     </row>
     <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>394</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>435</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>396</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>436</v>
+      </c>
       <c r="F6" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>

--- a/TestCase V1.xlsx
+++ b/TestCase V1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3504E040-DEE3-B04C-A5B8-3C909C9480F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="9555" windowHeight="4185" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="9555" windowHeight="4185" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login&amp;logout" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,25 @@
     <sheet name="Mini statement" sheetId="8" r:id="rId8"/>
     <sheet name="Customized statement" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="444">
   <si>
     <t>ID</t>
   </si>
@@ -1437,17 +1451,38 @@
   </si>
   <si>
     <t>enter space before first character</t>
+  </si>
+  <si>
+    <t>customized statement with verified account number</t>
+  </si>
+  <si>
+    <t>customized statement_001</t>
+  </si>
+  <si>
+    <t>customized statement_002</t>
+  </si>
+  <si>
+    <t>customized statement_003</t>
+  </si>
+  <si>
+    <t>customized statement_004</t>
+  </si>
+  <si>
+    <t>customized statement_005</t>
+  </si>
+  <si>
+    <t>customized statement_006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1455,7 +1490,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1463,7 +1498,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1608,6 +1643,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1620,12 +1661,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1636,6 +1671,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1927,22 +1965,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="14.9296875" customWidth="1"/>
+    <col min="2" max="2" width="12.64453125" customWidth="1"/>
     <col min="3" max="3" width="37.125" customWidth="1"/>
-    <col min="4" max="4" width="27.875" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="27.84375" customWidth="1"/>
+    <col min="5" max="5" width="20.984375" customWidth="1"/>
+    <col min="6" max="6" width="23.5390625" customWidth="1"/>
+    <col min="7" max="7" width="23.67578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1971,11 +2009,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1997,11 +2035,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2021,11 +2059,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2047,7 +2085,7 @@
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2069,11 +2107,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
@@ -2093,11 +2131,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="4" t="s">
         <v>34</v>
       </c>
@@ -2127,23 +2165,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="48.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="35.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.75" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="18.0234375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.17578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="48.15625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.58203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.98828125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35.91796875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.72265625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.01171875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -2172,11 +2210,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2198,11 +2236,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="3" t="s">
         <v>47</v>
       </c>
@@ -2219,11 +2257,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
@@ -2243,11 +2281,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="81" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
@@ -2267,11 +2305,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="3" t="s">
         <v>59</v>
       </c>
@@ -2291,18 +2329,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="15" t="s">
         <v>404</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -2315,11 +2353,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="3" t="s">
         <v>67</v>
       </c>
@@ -2346,11 +2384,11 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2369,11 +2407,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="3" t="s">
         <v>76</v>
       </c>
@@ -2390,18 +2428,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="16">
         <v>65014</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -2414,11 +2452,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="3" t="s">
         <v>85</v>
       </c>
@@ -2445,11 +2483,11 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="17" t="s">
         <v>106</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -2468,11 +2506,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="3" t="s">
         <v>94</v>
       </c>
@@ -2489,11 +2527,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="3" t="s">
         <v>98</v>
       </c>
@@ -2513,11 +2551,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="3" t="s">
         <v>105</v>
       </c>
@@ -2547,11 +2585,11 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="17" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2570,11 +2608,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="3" t="s">
         <v>113</v>
       </c>
@@ -2591,11 +2629,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="3" t="s">
         <v>118</v>
       </c>
@@ -2615,11 +2653,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="3" t="s">
         <v>121</v>
       </c>
@@ -2639,11 +2677,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="3" t="s">
         <v>124</v>
       </c>
@@ -2677,7 +2715,7 @@
       <c r="A28" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="17" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -2696,11 +2734,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="3" t="s">
         <v>156</v>
       </c>
@@ -2717,11 +2755,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="3" t="s">
         <v>134</v>
       </c>
@@ -2741,11 +2779,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="3" t="s">
         <v>135</v>
       </c>
@@ -2765,11 +2803,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="3" t="s">
         <v>136</v>
       </c>
@@ -2789,11 +2827,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="15"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="3" t="s">
         <v>137</v>
       </c>
@@ -2810,11 +2848,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="3" t="s">
         <v>138</v>
       </c>
@@ -2844,11 +2882,11 @@
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="17" t="s">
         <v>157</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -2870,11 +2908,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="15"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="3" t="s">
         <v>162</v>
       </c>
@@ -2891,11 +2929,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="3" t="s">
         <v>167</v>
       </c>
@@ -2915,11 +2953,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B39" s="15"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="3" t="s">
         <v>172</v>
       </c>
@@ -2939,11 +2977,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B40" s="15"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="3" t="s">
         <v>175</v>
       </c>
@@ -2963,11 +3001,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B41" s="15"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="3" t="s">
         <v>179</v>
       </c>
@@ -2987,11 +3025,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B42" s="15"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="3" t="s">
         <v>184</v>
       </c>
@@ -3021,11 +3059,11 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="17" t="s">
         <v>190</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -3044,11 +3082,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B45" s="15"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="3" t="s">
         <v>194</v>
       </c>
@@ -3065,11 +3103,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="3" t="s">
         <v>198</v>
       </c>
@@ -3089,11 +3127,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B47" s="15"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="3" t="s">
         <v>201</v>
       </c>
@@ -3113,11 +3151,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B48" s="15"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="3" t="s">
         <v>205</v>
       </c>
@@ -3137,11 +3175,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B49" s="15"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="3" t="s">
         <v>210</v>
       </c>
@@ -3161,11 +3199,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B50" s="15"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="3" t="s">
         <v>215</v>
       </c>
@@ -3195,7 +3233,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>224</v>
       </c>
@@ -3218,7 +3256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>228</v>
       </c>
@@ -3238,7 +3276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="81" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>231</v>
       </c>
@@ -3248,7 +3286,7 @@
       <c r="D54" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="15" t="s">
         <v>415</v>
       </c>
       <c r="F54" s="3" t="s">
@@ -3261,7 +3299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>235</v>
       </c>
@@ -3284,7 +3322,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>239</v>
       </c>
@@ -3294,7 +3332,7 @@
       <c r="D56" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="15" t="s">
         <v>416</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -3317,11 +3355,11 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="18" t="s">
         <v>240</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -3340,11 +3378,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B59" s="18"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="3" t="s">
         <v>246</v>
       </c>
@@ -3383,33 +3421,33 @@
     <mergeCell ref="B28:B34"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1"/>
-    <hyperlink ref="E54" r:id="rId2"/>
-    <hyperlink ref="E56" r:id="rId3"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E54" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E56" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="22.375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="23.125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="18.29296875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.8125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="18.4296875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="23.80859375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.5625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="22.328125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="23.13671875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="17.75390625" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9.01171875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3438,11 +3476,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>288</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3464,11 +3502,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
         <v>274</v>
       </c>
@@ -3486,11 +3524,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="3" t="s">
         <v>296</v>
       </c>
@@ -3510,11 +3548,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
         <v>299</v>
       </c>
@@ -3534,11 +3572,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
         <v>302</v>
       </c>
@@ -3558,11 +3596,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="3" t="s">
         <v>305</v>
       </c>
@@ -3589,23 +3627,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="39.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="18.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="21.7890625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.0234375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.68359375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.3125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.01171875" style="3"/>
+    <col min="6" max="6" width="18.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.1171875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.01171875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3634,11 +3672,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>252</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3657,11 +3695,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
         <v>256</v>
       </c>
@@ -3678,11 +3716,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="3" t="s">
         <v>260</v>
       </c>
@@ -3702,11 +3740,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
         <v>264</v>
       </c>
@@ -3726,11 +3764,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
         <v>268</v>
       </c>
@@ -3752,7 +3790,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -3769,23 +3807,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E10" sqref="E10:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.25" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="22.59765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.1015625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.99609375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.171875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.0078125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.234375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.26953125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.01171875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3814,11 +3852,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>271</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3837,11 +3875,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
         <v>274</v>
       </c>
@@ -3858,11 +3896,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="3" t="s">
         <v>278</v>
       </c>
@@ -3882,11 +3920,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
         <v>282</v>
       </c>
@@ -3906,11 +3944,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="3" t="s">
         <v>285</v>
       </c>
@@ -3940,11 +3978,11 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>310</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -3963,11 +4001,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="3" t="s">
         <v>314</v>
       </c>
@@ -3984,11 +4022,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="3" t="s">
         <v>319</v>
       </c>
@@ -4008,11 +4046,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="3" t="s">
         <v>323</v>
       </c>
@@ -4032,11 +4070,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="3" t="s">
         <v>327</v>
       </c>
@@ -4056,11 +4094,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="3" t="s">
         <v>331</v>
       </c>
@@ -4100,19 +4138,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E5" sqref="E5:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.484375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="17.5" style="13"/>
+    <col min="1" max="1" width="27.84375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.40625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="25.2890625" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="17.484375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -4141,11 +4179,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>335</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -4165,11 +4203,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
         <v>340</v>
       </c>
@@ -4187,11 +4225,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="3" t="s">
         <v>344</v>
       </c>
@@ -4211,11 +4249,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
         <v>347</v>
       </c>
@@ -4235,11 +4273,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
         <v>350</v>
       </c>
@@ -4259,11 +4297,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="3" t="s">
         <v>354</v>
       </c>
@@ -4283,11 +4321,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="3" t="s">
         <v>357</v>
       </c>
@@ -4324,16 +4362,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="22.734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="22.75" style="13"/>
+    <col min="1" max="16384" width="22.734375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -4362,11 +4400,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>361</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -4386,11 +4424,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
         <v>340</v>
       </c>
@@ -4408,11 +4446,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="3" t="s">
         <v>344</v>
       </c>
@@ -4432,11 +4470,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
         <v>347</v>
       </c>
@@ -4456,11 +4494,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
         <v>350</v>
       </c>
@@ -4480,11 +4518,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="3" t="s">
         <v>354</v>
       </c>
@@ -4504,11 +4542,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="3" t="s">
         <v>357</v>
       </c>
@@ -4535,18 +4573,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.8125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.75" style="13"/>
-    <col min="3" max="3" width="21.75" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="16.75" style="13"/>
+    <col min="1" max="2" width="16.8125" style="13"/>
+    <col min="3" max="3" width="21.7890625" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="16.8125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -4575,11 +4613,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>369</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -4599,11 +4637,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
         <v>373</v>
       </c>
@@ -4621,11 +4659,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="3" t="s">
         <v>377</v>
       </c>
@@ -4645,11 +4683,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="81" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
         <v>379</v>
       </c>
@@ -4669,11 +4707,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
         <v>350</v>
       </c>
@@ -4693,11 +4731,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="3" t="s">
         <v>386</v>
       </c>
@@ -4724,19 +4762,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="19.7734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="19.75" style="13"/>
+    <col min="1" max="16384" width="19.7734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4762,12 +4800,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>369</v>
+        <v>438</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>437</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>370</v>
@@ -4786,11 +4824,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B3" s="3"/>
+        <v>439</v>
+      </c>
+      <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
         <v>373</v>
       </c>
@@ -4804,11 +4842,11 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>440</v>
+      </c>
+      <c r="B4" s="19"/>
       <c r="C4" s="3" t="s">
         <v>377</v>
       </c>
@@ -4824,11 +4862,11 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>441</v>
+      </c>
+      <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
         <v>379</v>
       </c>
@@ -4844,11 +4882,11 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>442</v>
+      </c>
+      <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
         <v>350</v>
       </c>
@@ -4864,11 +4902,11 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>443</v>
+      </c>
+      <c r="B7" s="20"/>
       <c r="C7" s="3" t="s">
         <v>386</v>
       </c>
@@ -4883,6 +4921,9 @@
       <c r="H7" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestCase V1.xlsx
+++ b/TestCase V1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3504E040-DEE3-B04C-A5B8-3C909C9480F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="9555" windowHeight="4185" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="9555" windowHeight="4185" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="login&amp;logout" sheetId="1" r:id="rId1"/>
@@ -16,27 +15,14 @@
     <sheet name="Edit account" sheetId="6" r:id="rId6"/>
     <sheet name="Delete account" sheetId="7" r:id="rId7"/>
     <sheet name="Mini statement" sheetId="8" r:id="rId8"/>
-    <sheet name="Customized statement" sheetId="9" r:id="rId9"/>
+    <sheet name="Customized statement" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="462">
   <si>
     <t>ID</t>
   </si>
@@ -1324,15 +1310,6 @@
     <t>1- enter character in account number field 2- press TAB to move to next field</t>
   </si>
   <si>
-    <t>1- enter special character in account number field 2- press TAB to move to next field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- enter space before first number in account number 2- press TAB to move to next field </t>
-  </si>
-  <si>
-    <t>stop typing when reach the max-length</t>
-  </si>
-  <si>
     <t>userID:mngrf 
 password:123bb456</t>
   </si>
@@ -1447,12 +1424,6 @@
     <t>enter space bbutton before first characer</t>
   </si>
   <si>
-    <t>asxzc</t>
-  </si>
-  <si>
-    <t>enter space before first character</t>
-  </si>
-  <si>
     <t>customized statement with verified account number</t>
   </si>
   <si>
@@ -1468,21 +1439,97 @@
     <t>customized statement_004</t>
   </si>
   <si>
+    <t>1- enter special character in account number field 
+2- press TAB to move to next field</t>
+  </si>
+  <si>
     <t>customized statement_005</t>
   </si>
   <si>
+    <t xml:space="preserve">1- enter space before first number in account number
+ 2- press TAB to move to next field </t>
+  </si>
+  <si>
     <t>customized statement_006</t>
+  </si>
+  <si>
+    <t>customized statement with Number of transaction</t>
+  </si>
+  <si>
+    <t>verified that number of transaction must be numerical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-enter number in number of transaction field 
+2-press TAB to move to next field           </t>
+  </si>
+  <si>
+    <t>customized statement_007</t>
+  </si>
+  <si>
+    <t>verified that number of transaction can not have character</t>
+  </si>
+  <si>
+    <t>1-enter character in number of transaction field 
+2-press TAB to move to next field</t>
+  </si>
+  <si>
+    <t>aszx</t>
+  </si>
+  <si>
+    <t>error msg will dispalyed''character are not allowed''</t>
+  </si>
+  <si>
+    <t>customized statement_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verified that number of transaction can not have special character </t>
+  </si>
+  <si>
+    <t>1-enter special character in number of transaction field 
+2-press TAB to move to next field</t>
+  </si>
+  <si>
+    <t>error msg will dispalyed''special character are not allowed''</t>
+  </si>
+  <si>
+    <t>customized statement_009</t>
+  </si>
+  <si>
+    <t>verified that number of transaction can not be blanked</t>
+  </si>
+  <si>
+    <t>1-do not enter value in number of transaction field
+2-press TAB to move to next field</t>
+  </si>
+  <si>
+    <t>error msg will dispaled''field must not be blanked''</t>
+  </si>
+  <si>
+    <t>customized statement_010</t>
+  </si>
+  <si>
+    <t>verified that space are not allowed</t>
+  </si>
+  <si>
+    <t>1-enter space before first character
+2-press TAB to move to next field</t>
+  </si>
+  <si>
+    <t>press space button before first character</t>
+  </si>
+  <si>
+    <t>error msg will dispaled''space are not allowed''</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1490,7 +1537,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1498,7 +1545,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1607,7 +1654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1661,6 +1708,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1671,9 +1730,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1965,22 +2021,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.9296875" customWidth="1"/>
-    <col min="2" max="2" width="12.64453125" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="37.125" customWidth="1"/>
-    <col min="4" max="4" width="27.84375" customWidth="1"/>
-    <col min="5" max="5" width="20.984375" customWidth="1"/>
-    <col min="6" max="6" width="23.5390625" customWidth="1"/>
-    <col min="7" max="7" width="23.67578125" customWidth="1"/>
+    <col min="4" max="4" width="27.875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -2009,7 +2065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2023,7 +2079,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>27</v>
@@ -2035,7 +2091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2047,7 +2103,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
@@ -2059,7 +2115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2095,7 +2151,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>26</v>
@@ -2107,7 +2163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
@@ -2119,7 +2175,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>32</v>
@@ -2131,7 +2187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
@@ -2165,23 +2221,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.0234375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.17578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="48.15625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.98828125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="35.91796875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.72265625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.01171875" style="3"/>
+    <col min="1" max="1" width="18" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="48.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.75" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -2210,7 +2266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -2224,7 +2280,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
@@ -2236,7 +2292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -2257,7 +2313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -2269,7 +2325,7 @@
         <v>49</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>53</v>
@@ -2281,7 +2337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="81" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -2293,7 +2349,7 @@
         <v>100</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>56</v>
@@ -2305,7 +2361,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>58</v>
       </c>
@@ -2317,7 +2373,7 @@
         <v>62</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>92</v>
@@ -2329,7 +2385,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>60</v>
       </c>
@@ -2341,7 +2397,7 @@
         <v>63</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>64</v>
@@ -2353,7 +2409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>66</v>
       </c>
@@ -2384,7 +2440,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>71</v>
       </c>
@@ -2407,7 +2463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -2428,7 +2484,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>80</v>
       </c>
@@ -2452,7 +2508,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>84</v>
       </c>
@@ -2483,7 +2539,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
@@ -2506,7 +2562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>93</v>
       </c>
@@ -2527,7 +2583,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>97</v>
       </c>
@@ -2539,7 +2595,7 @@
         <v>99</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>101</v>
@@ -2551,7 +2607,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>102</v>
       </c>
@@ -2563,7 +2619,7 @@
         <v>103</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>65</v>
@@ -2585,7 +2641,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>104</v>
       </c>
@@ -2608,7 +2664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>112</v>
       </c>
@@ -2629,7 +2685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>117</v>
       </c>
@@ -2641,7 +2697,7 @@
         <v>119</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>54</v>
@@ -2653,7 +2709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>120</v>
       </c>
@@ -2665,7 +2721,7 @@
         <v>122</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>65</v>
@@ -2677,7 +2733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>123</v>
       </c>
@@ -2689,7 +2745,7 @@
         <v>125</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>101</v>
@@ -2734,7 +2790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>127</v>
       </c>
@@ -2755,7 +2811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>128</v>
       </c>
@@ -2779,7 +2835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>129</v>
       </c>
@@ -2791,7 +2847,7 @@
         <v>141</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>147</v>
@@ -2803,7 +2859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>130</v>
       </c>
@@ -2815,7 +2871,7 @@
         <v>142</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>148</v>
@@ -2827,7 +2883,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>131</v>
       </c>
@@ -2848,7 +2904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>132</v>
       </c>
@@ -2860,7 +2916,7 @@
         <v>144</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>92</v>
@@ -2882,7 +2938,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -2908,7 +2964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>166</v>
       </c>
@@ -2929,7 +2985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>171</v>
       </c>
@@ -2941,7 +2997,7 @@
         <v>168</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>169</v>
@@ -2953,7 +3009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>174</v>
       </c>
@@ -2965,7 +3021,7 @@
         <v>173</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>151</v>
@@ -2977,7 +3033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>188</v>
       </c>
@@ -2989,7 +3045,7 @@
         <v>176</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>177</v>
@@ -3001,7 +3057,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>183</v>
       </c>
@@ -3025,7 +3081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>189</v>
       </c>
@@ -3059,7 +3115,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>193</v>
       </c>
@@ -3082,7 +3138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>197</v>
       </c>
@@ -3103,7 +3159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>200</v>
       </c>
@@ -3115,7 +3171,7 @@
         <v>199</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>169</v>
@@ -3127,7 +3183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>218</v>
       </c>
@@ -3139,7 +3195,7 @@
         <v>202</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>203</v>
@@ -3151,7 +3207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>209</v>
       </c>
@@ -3163,7 +3219,7 @@
         <v>206</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>207</v>
@@ -3175,7 +3231,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>214</v>
       </c>
@@ -3199,7 +3255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>219</v>
       </c>
@@ -3233,7 +3289,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>224</v>
       </c>
@@ -3256,7 +3312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>228</v>
       </c>
@@ -3276,7 +3332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="81" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>231</v>
       </c>
@@ -3287,7 +3343,7 @@
         <v>230</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>160</v>
@@ -3299,7 +3355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>235</v>
       </c>
@@ -3310,7 +3366,7 @@
         <v>233</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>207</v>
@@ -3322,7 +3378,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>239</v>
       </c>
@@ -3333,7 +3389,7 @@
         <v>237</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>238</v>
@@ -3355,7 +3411,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>245</v>
       </c>
@@ -3378,7 +3434,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>250</v>
       </c>
@@ -3421,33 +3477,33 @@
     <mergeCell ref="B28:B34"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E54" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E56" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E7" r:id="rId1"/>
+    <hyperlink ref="E54" r:id="rId2"/>
+    <hyperlink ref="E56" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.29296875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.8125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="18.4296875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="23.80859375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="18.5625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="22.328125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="23.13671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="17.75390625" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="9.01171875" style="13"/>
+    <col min="1" max="1" width="18.25" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3476,7 +3532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>287</v>
       </c>
@@ -3502,7 +3558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>291</v>
       </c>
@@ -3524,7 +3580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>295</v>
       </c>
@@ -3536,7 +3592,7 @@
         <v>297</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>169</v>
@@ -3548,7 +3604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>298</v>
       </c>
@@ -3560,7 +3616,7 @@
         <v>300</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>151</v>
@@ -3572,7 +3628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>301</v>
       </c>
@@ -3584,7 +3640,7 @@
         <v>303</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>207</v>
@@ -3596,7 +3652,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>304</v>
       </c>
@@ -3627,23 +3683,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7890625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.0234375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="39.68359375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.3125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.01171875" style="3"/>
-    <col min="6" max="6" width="18.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.1171875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.01171875" style="3"/>
+    <col min="1" max="1" width="21.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="18.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3672,7 +3728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>251</v>
       </c>
@@ -3695,7 +3751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>255</v>
       </c>
@@ -3716,7 +3772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>259</v>
       </c>
@@ -3728,7 +3784,7 @@
         <v>261</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>262</v>
@@ -3740,7 +3796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>263</v>
       </c>
@@ -3752,7 +3808,7 @@
         <v>265</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>266</v>
@@ -3764,7 +3820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>267</v>
       </c>
@@ -3776,7 +3832,7 @@
         <v>269</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>207</v>
@@ -3807,23 +3863,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E10" sqref="E10:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.1015625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.99609375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.171875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.0078125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.234375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.26953125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.01171875" style="3"/>
+    <col min="1" max="1" width="22.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.25" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3852,7 +3908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>270</v>
       </c>
@@ -3875,7 +3931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>273</v>
       </c>
@@ -3896,7 +3952,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>277</v>
       </c>
@@ -3908,7 +3964,7 @@
         <v>279</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>280</v>
@@ -3920,7 +3976,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>281</v>
       </c>
@@ -3932,10 +3988,10 @@
         <v>283</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>91</v>
@@ -3944,7 +4000,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>284</v>
       </c>
@@ -3956,7 +4012,7 @@
         <v>269</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>286</v>
@@ -3978,7 +4034,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>309</v>
       </c>
@@ -4001,7 +4057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>313</v>
       </c>
@@ -4022,7 +4078,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>318</v>
       </c>
@@ -4034,7 +4090,7 @@
         <v>320</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>321</v>
@@ -4046,7 +4102,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>322</v>
       </c>
@@ -4058,7 +4114,7 @@
         <v>324</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>325</v>
@@ -4070,7 +4126,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>326</v>
       </c>
@@ -4082,7 +4138,7 @@
         <v>328</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>329</v>
@@ -4094,7 +4150,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>330</v>
       </c>
@@ -4138,19 +4194,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E5" sqref="E5:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.484375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.84375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23.40625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="25.2890625" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="17.484375" style="13"/>
+    <col min="1" max="1" width="27.875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="17.5" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -4179,7 +4235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>334</v>
       </c>
@@ -4203,7 +4259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>339</v>
       </c>
@@ -4225,7 +4281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>343</v>
       </c>
@@ -4237,7 +4293,7 @@
         <v>345</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>325</v>
@@ -4249,7 +4305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>346</v>
       </c>
@@ -4261,7 +4317,7 @@
         <v>348</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>147</v>
@@ -4273,7 +4329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>349</v>
       </c>
@@ -4285,7 +4341,7 @@
         <v>351</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>352</v>
@@ -4297,7 +4353,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>353</v>
       </c>
@@ -4309,7 +4365,7 @@
         <v>355</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>352</v>
@@ -4321,7 +4377,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>356</v>
       </c>
@@ -4362,16 +4418,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="22.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="22.734375" style="13"/>
+    <col min="1" max="16384" width="22.75" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -4400,7 +4456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>360</v>
       </c>
@@ -4424,7 +4480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>362</v>
       </c>
@@ -4446,7 +4502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>364</v>
       </c>
@@ -4458,7 +4514,7 @@
         <v>345</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>325</v>
@@ -4470,7 +4526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>365</v>
       </c>
@@ -4482,7 +4538,7 @@
         <v>348</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>147</v>
@@ -4494,7 +4550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>366</v>
       </c>
@@ -4506,7 +4562,7 @@
         <v>351</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>352</v>
@@ -4518,7 +4574,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>367</v>
       </c>
@@ -4530,7 +4586,7 @@
         <v>355</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>352</v>
@@ -4542,7 +4598,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>360</v>
       </c>
@@ -4573,18 +4629,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.8125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.8125" style="13"/>
-    <col min="3" max="3" width="21.7890625" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="16.8125" style="13"/>
+    <col min="1" max="2" width="16.75" style="13"/>
+    <col min="3" max="3" width="21.75" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="16.75" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -4613,7 +4669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>368</v>
       </c>
@@ -4637,7 +4693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>372</v>
       </c>
@@ -4659,7 +4715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>376</v>
       </c>
@@ -4671,7 +4727,7 @@
         <v>345</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>169</v>
@@ -4683,7 +4739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="81" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>378</v>
       </c>
@@ -4695,7 +4751,7 @@
         <v>380</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>381</v>
@@ -4707,7 +4763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>382</v>
       </c>
@@ -4719,7 +4775,7 @@
         <v>383</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>384</v>
@@ -4731,7 +4787,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>385</v>
       </c>
@@ -4762,16 +4818,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.7734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="19.7734375" style="13"/>
+    <col min="1" max="16384" width="19.75" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -4800,12 +4856,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>370</v>
@@ -4813,20 +4869,19 @@
       <c r="D2" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
@@ -4835,16 +4890,19 @@
       <c r="D3" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+      <c r="G3" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="3" t="s">
@@ -4853,76 +4911,190 @@
       <c r="D4" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>435</v>
-      </c>
       <c r="F4" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="68.25" x14ac:dyDescent="0.2">
+      <c r="G4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
         <v>379</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+      <c r="G5" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B7"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B8:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
